--- a/UNI 2024/SEM 1/FOSE3000/Attachments/Kinetic Walkwayus.xlsx
+++ b/UNI 2024/SEM 1/FOSE3000/Attachments/Kinetic Walkwayus.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyler\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyler\Documents\GitHub\Obsidian-git-repo\UNI 2024\SEM 1\FOSE3000\Attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B236A7A-40E0-4C0E-A3A9-514B99E0255C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96DC15E-64F8-4723-BFB4-DC79A47960D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{5C8433A3-B28B-47D3-9236-2835007F55AE}"/>
   </bookViews>
@@ -430,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC77121-B4BB-470F-9270-171BB387A113}">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="C2" s="2">
         <f>B2/(E$5*60*60)</f>
-        <v>2.2222222222222223</v>
+        <v>1.2345679012345678</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -478,7 +478,7 @@
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C31" si="1">B3/(E$5*60*60)</f>
-        <v>4.4444444444444446</v>
+        <v>2.4691358024691357</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" si="1"/>
-        <v>6.666666666666667</v>
+        <v>3.7037037037037037</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -516,13 +516,13 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" si="1"/>
-        <v>8.8888888888888893</v>
+        <v>4.9382716049382713</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -535,7 +535,7 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" si="1"/>
-        <v>11.111111111111111</v>
+        <v>6.1728395061728394</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" s="2">
         <f t="shared" si="1"/>
-        <v>13.333333333333334</v>
+        <v>7.4074074074074074</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -561,7 +561,7 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" si="1"/>
-        <v>15.555555555555555</v>
+        <v>8.6419753086419746</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -574,7 +574,7 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" si="1"/>
-        <v>17.777777777777779</v>
+        <v>9.8765432098765427</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -587,7 +587,7 @@
       </c>
       <c r="C10" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>11.111111111111111</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -600,7 +600,7 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" si="1"/>
-        <v>22.222222222222221</v>
+        <v>12.345679012345679</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -613,7 +613,7 @@
       </c>
       <c r="C12" s="2">
         <f t="shared" si="1"/>
-        <v>24.444444444444443</v>
+        <v>13.580246913580247</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -626,7 +626,7 @@
       </c>
       <c r="C13" s="2">
         <f t="shared" si="1"/>
-        <v>26.666666666666668</v>
+        <v>14.814814814814815</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -639,7 +639,7 @@
       </c>
       <c r="C14" s="2">
         <f t="shared" si="1"/>
-        <v>28.888888888888889</v>
+        <v>16.049382716049383</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -652,7 +652,7 @@
       </c>
       <c r="C15" s="2">
         <f t="shared" si="1"/>
-        <v>31.111111111111111</v>
+        <v>17.283950617283949</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -665,7 +665,7 @@
       </c>
       <c r="C16" s="2">
         <f t="shared" si="1"/>
-        <v>33.333333333333336</v>
+        <v>18.518518518518519</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -678,7 +678,7 @@
       </c>
       <c r="C17" s="2">
         <f t="shared" si="1"/>
-        <v>35.555555555555557</v>
+        <v>19.753086419753085</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -691,7 +691,7 @@
       </c>
       <c r="C18" s="2">
         <f t="shared" si="1"/>
-        <v>37.777777777777779</v>
+        <v>20.987654320987655</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -704,7 +704,7 @@
       </c>
       <c r="C19" s="2">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>22.222222222222221</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -717,7 +717,7 @@
       </c>
       <c r="C20" s="2">
         <f t="shared" si="1"/>
-        <v>42.222222222222221</v>
+        <v>23.456790123456791</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -730,7 +730,7 @@
       </c>
       <c r="C21" s="2">
         <f t="shared" si="1"/>
-        <v>44.444444444444443</v>
+        <v>24.691358024691358</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -743,7 +743,7 @@
       </c>
       <c r="C22" s="2">
         <f t="shared" si="1"/>
-        <v>46.666666666666664</v>
+        <v>25.925925925925927</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -756,7 +756,7 @@
       </c>
       <c r="C23" s="2">
         <f t="shared" si="1"/>
-        <v>48.888888888888886</v>
+        <v>27.160493827160494</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -769,7 +769,7 @@
       </c>
       <c r="C24" s="2">
         <f t="shared" si="1"/>
-        <v>51.111111111111114</v>
+        <v>28.395061728395063</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -782,7 +782,7 @@
       </c>
       <c r="C25" s="2">
         <f t="shared" si="1"/>
-        <v>53.333333333333336</v>
+        <v>29.62962962962963</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -795,7 +795,7 @@
       </c>
       <c r="C26" s="2">
         <f t="shared" si="1"/>
-        <v>55.555555555555557</v>
+        <v>30.864197530864196</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -808,7 +808,7 @@
       </c>
       <c r="C27" s="2">
         <f t="shared" si="1"/>
-        <v>57.777777777777779</v>
+        <v>32.098765432098766</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -821,7 +821,7 @@
       </c>
       <c r="C28" s="2">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>33.333333333333336</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -834,7 +834,7 @@
       </c>
       <c r="C29" s="2">
         <f t="shared" si="1"/>
-        <v>62.222222222222221</v>
+        <v>34.567901234567898</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -847,7 +847,7 @@
       </c>
       <c r="C30" s="2">
         <f t="shared" si="1"/>
-        <v>64.444444444444443</v>
+        <v>35.802469135802468</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -860,7 +860,7 @@
       </c>
       <c r="C31" s="2">
         <f t="shared" si="1"/>
-        <v>66.666666666666671</v>
+        <v>37.037037037037038</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -873,7 +873,7 @@
       </c>
       <c r="C32" s="2">
         <f>B32/(E$5*60*60)</f>
-        <v>68.888888888888886</v>
+        <v>38.271604938271608</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -886,7 +886,7 @@
       </c>
       <c r="C33" s="2">
         <f t="shared" ref="C33:C50" si="3">B33/(E$5*60*60)</f>
-        <v>71.111111111111114</v>
+        <v>39.506172839506171</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -899,7 +899,7 @@
       </c>
       <c r="C34" s="2">
         <f t="shared" si="3"/>
-        <v>73.333333333333329</v>
+        <v>40.74074074074074</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -912,7 +912,7 @@
       </c>
       <c r="C35" s="2">
         <f t="shared" si="3"/>
-        <v>75.555555555555557</v>
+        <v>41.97530864197531</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -925,7 +925,7 @@
       </c>
       <c r="C36" s="2">
         <f t="shared" si="3"/>
-        <v>77.777777777777771</v>
+        <v>43.209876543209873</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -938,7 +938,7 @@
       </c>
       <c r="C37" s="2">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>44.444444444444443</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -951,7 +951,7 @@
       </c>
       <c r="C38" s="2">
         <f t="shared" si="3"/>
-        <v>82.222222222222229</v>
+        <v>45.679012345679013</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -964,7 +964,7 @@
       </c>
       <c r="C39" s="2">
         <f t="shared" si="3"/>
-        <v>84.444444444444443</v>
+        <v>46.913580246913583</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -977,7 +977,7 @@
       </c>
       <c r="C40" s="2">
         <f t="shared" si="3"/>
-        <v>86.666666666666671</v>
+        <v>48.148148148148145</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -985,12 +985,12 @@
         <v>40000</v>
       </c>
       <c r="B41">
-        <f t="shared" si="2"/>
+        <f>A41*E$3*E$4</f>
         <v>3200000</v>
       </c>
       <c r="C41" s="2">
-        <f t="shared" si="3"/>
-        <v>88.888888888888886</v>
+        <f>B41/(E$5*60*60)</f>
+        <v>49.382716049382715</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -998,12 +998,12 @@
         <v>41000</v>
       </c>
       <c r="B42">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B42:B70" si="4">A42*E$3*E$4</f>
         <v>3280000</v>
       </c>
       <c r="C42" s="2">
-        <f t="shared" si="3"/>
-        <v>91.111111111111114</v>
+        <f t="shared" ref="C42:C70" si="5">B42/(E$5*60*60)</f>
+        <v>50.617283950617285</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1011,12 +1011,12 @@
         <v>42000</v>
       </c>
       <c r="B43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3360000</v>
       </c>
       <c r="C43" s="2">
-        <f t="shared" si="3"/>
-        <v>93.333333333333329</v>
+        <f t="shared" si="5"/>
+        <v>51.851851851851855</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -1024,12 +1024,12 @@
         <v>43000</v>
       </c>
       <c r="B44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3440000</v>
       </c>
       <c r="C44" s="2">
-        <f t="shared" si="3"/>
-        <v>95.555555555555557</v>
+        <f t="shared" si="5"/>
+        <v>53.086419753086417</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1037,12 +1037,12 @@
         <v>44000</v>
       </c>
       <c r="B45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3520000</v>
       </c>
       <c r="C45" s="2">
-        <f t="shared" si="3"/>
-        <v>97.777777777777771</v>
+        <f t="shared" si="5"/>
+        <v>54.320987654320987</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1050,12 +1050,12 @@
         <v>45000</v>
       </c>
       <c r="B46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3600000</v>
       </c>
       <c r="C46" s="2">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <f t="shared" si="5"/>
+        <v>55.555555555555557</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1063,12 +1063,12 @@
         <v>46000</v>
       </c>
       <c r="B47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3680000</v>
       </c>
       <c r="C47" s="2">
-        <f t="shared" si="3"/>
-        <v>102.22222222222223</v>
+        <f t="shared" si="5"/>
+        <v>56.790123456790127</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1076,12 +1076,12 @@
         <v>47000</v>
       </c>
       <c r="B48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3760000</v>
       </c>
       <c r="C48" s="2">
-        <f t="shared" si="3"/>
-        <v>104.44444444444444</v>
+        <f t="shared" si="5"/>
+        <v>58.02469135802469</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1089,12 +1089,12 @@
         <v>48000</v>
       </c>
       <c r="B49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3840000</v>
       </c>
       <c r="C49" s="2">
-        <f t="shared" si="3"/>
-        <v>106.66666666666667</v>
+        <f t="shared" si="5"/>
+        <v>59.25925925925926</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -1102,12 +1102,12 @@
         <v>49000</v>
       </c>
       <c r="B50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3920000</v>
       </c>
       <c r="C50" s="2">
-        <f t="shared" si="3"/>
-        <v>108.88888888888889</v>
+        <f t="shared" si="5"/>
+        <v>60.493827160493829</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -1115,12 +1115,12 @@
         <v>50000</v>
       </c>
       <c r="B51">
-        <f>A51*E$3*E$4</f>
+        <f t="shared" si="4"/>
         <v>4000000</v>
       </c>
       <c r="C51" s="2">
-        <f>B51/(E$5*60*60)</f>
-        <v>111.11111111111111</v>
+        <f t="shared" si="5"/>
+        <v>61.728395061728392</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -1128,12 +1128,12 @@
         <v>51000</v>
       </c>
       <c r="B52">
-        <f t="shared" ref="B52:B65" si="4">A52*E$3*E$4</f>
+        <f t="shared" si="4"/>
         <v>4080000</v>
       </c>
       <c r="C52" s="2">
-        <f t="shared" ref="C52:C65" si="5">B52/(E$5*60*60)</f>
-        <v>113.33333333333333</v>
+        <f t="shared" si="5"/>
+        <v>62.962962962962962</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="C53" s="2">
         <f t="shared" si="5"/>
-        <v>115.55555555555556</v>
+        <v>64.197530864197532</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="C54" s="2">
         <f t="shared" si="5"/>
-        <v>117.77777777777777</v>
+        <v>65.432098765432102</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="C55" s="2">
         <f t="shared" si="5"/>
-        <v>120</v>
+        <v>66.666666666666671</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="C56" s="2">
         <f t="shared" si="5"/>
-        <v>122.22222222222223</v>
+        <v>67.901234567901241</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="C57" s="2">
         <f t="shared" si="5"/>
-        <v>124.44444444444444</v>
+        <v>69.135802469135797</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C58" s="2">
         <f t="shared" si="5"/>
-        <v>126.66666666666667</v>
+        <v>70.370370370370367</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="C59" s="2">
         <f t="shared" si="5"/>
-        <v>128.88888888888889</v>
+        <v>71.604938271604937</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="C60" s="2">
         <f t="shared" si="5"/>
-        <v>131.11111111111111</v>
+        <v>72.839506172839506</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="C61" s="2">
         <f t="shared" si="5"/>
-        <v>133.33333333333334</v>
+        <v>74.074074074074076</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="C62" s="2">
         <f t="shared" si="5"/>
-        <v>135.55555555555554</v>
+        <v>75.308641975308646</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="C63" s="2">
         <f t="shared" si="5"/>
-        <v>137.77777777777777</v>
+        <v>76.543209876543216</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="C64" s="2">
         <f t="shared" si="5"/>
-        <v>140</v>
+        <v>77.777777777777771</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -1302,7 +1302,215 @@
       </c>
       <c r="C65" s="2">
         <f t="shared" si="5"/>
-        <v>142.22222222222223</v>
+        <v>79.012345679012341</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>65000</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="4"/>
+        <v>5200000</v>
+      </c>
+      <c r="C66" s="2">
+        <f t="shared" si="5"/>
+        <v>80.246913580246911</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>66000</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="4"/>
+        <v>5280000</v>
+      </c>
+      <c r="C67" s="2">
+        <f t="shared" si="5"/>
+        <v>81.481481481481481</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>67000</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="4"/>
+        <v>5360000</v>
+      </c>
+      <c r="C68" s="2">
+        <f t="shared" si="5"/>
+        <v>82.716049382716051</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>68000</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="4"/>
+        <v>5440000</v>
+      </c>
+      <c r="C69" s="2">
+        <f t="shared" si="5"/>
+        <v>83.950617283950621</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>69000</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="4"/>
+        <v>5520000</v>
+      </c>
+      <c r="C70" s="2">
+        <f t="shared" si="5"/>
+        <v>85.18518518518519</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>70000</v>
+      </c>
+      <c r="B71">
+        <f>A71*E$3*E$4</f>
+        <v>5600000</v>
+      </c>
+      <c r="C71" s="2">
+        <f>B71/(E$5*60*60)</f>
+        <v>86.419753086419746</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>71000</v>
+      </c>
+      <c r="B72">
+        <f t="shared" ref="B72:B73" si="6">A72*E$3*E$4</f>
+        <v>5680000</v>
+      </c>
+      <c r="C72" s="2">
+        <f t="shared" ref="C72:C73" si="7">B72/(E$5*60*60)</f>
+        <v>87.654320987654316</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>72000</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="6"/>
+        <v>5760000</v>
+      </c>
+      <c r="C73" s="2">
+        <f t="shared" si="7"/>
+        <v>88.888888888888886</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>73000</v>
+      </c>
+      <c r="B74">
+        <f>A74*E$3*E$4</f>
+        <v>5840000</v>
+      </c>
+      <c r="C74" s="2">
+        <f>B74/(E$5*60*60)</f>
+        <v>90.123456790123456</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>74000</v>
+      </c>
+      <c r="B75">
+        <f t="shared" ref="B75:B80" si="8">A75*E$3*E$4</f>
+        <v>5920000</v>
+      </c>
+      <c r="C75" s="2">
+        <f t="shared" ref="C75:C80" si="9">B75/(E$5*60*60)</f>
+        <v>91.358024691358025</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>75000</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="8"/>
+        <v>6000000</v>
+      </c>
+      <c r="C76" s="2">
+        <f t="shared" si="9"/>
+        <v>92.592592592592595</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>76000</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="8"/>
+        <v>6080000</v>
+      </c>
+      <c r="C77" s="2">
+        <f t="shared" si="9"/>
+        <v>93.827160493827165</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>77000</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="8"/>
+        <v>6160000</v>
+      </c>
+      <c r="C78" s="2">
+        <f t="shared" si="9"/>
+        <v>95.061728395061735</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>78000</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="8"/>
+        <v>6240000</v>
+      </c>
+      <c r="C79" s="2">
+        <f t="shared" si="9"/>
+        <v>96.296296296296291</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>79000</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="8"/>
+        <v>6320000</v>
+      </c>
+      <c r="C80" s="2">
+        <f t="shared" si="9"/>
+        <v>97.53086419753086</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>80000</v>
+      </c>
+      <c r="B81">
+        <f>A81*E$3*E$4</f>
+        <v>6400000</v>
+      </c>
+      <c r="C81" s="2">
+        <f>B81/(E$5*60*60)</f>
+        <v>98.76543209876543</v>
       </c>
     </row>
   </sheetData>
